--- a/Simulations/Pre-emptive/DDT.xlsx
+++ b/Simulations/Pre-emptive/DDT.xlsx
@@ -393,8 +393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F17" sqref="F16:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,6 +425,12 @@
       <c r="B2">
         <v>0.2</v>
       </c>
+      <c r="C2">
+        <v>700</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -434,7 +440,7 @@
         <v>0.4</v>
       </c>
       <c r="C3">
-        <v>309</v>
+        <v>652</v>
       </c>
       <c r="D3">
         <v>10</v>
@@ -448,7 +454,7 @@
         <v>0.6</v>
       </c>
       <c r="C4">
-        <v>215</v>
+        <v>621</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -461,6 +467,12 @@
       <c r="B5">
         <v>0.8</v>
       </c>
+      <c r="C5">
+        <v>456</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -469,6 +481,12 @@
       <c r="B6">
         <v>1</v>
       </c>
+      <c r="C6">
+        <v>520</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -477,6 +495,12 @@
       <c r="B7">
         <v>1.2</v>
       </c>
+      <c r="C7">
+        <v>432</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -485,6 +509,12 @@
       <c r="B8">
         <v>1.4</v>
       </c>
+      <c r="C8">
+        <v>381</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -493,6 +523,12 @@
       <c r="B9">
         <v>1.6</v>
       </c>
+      <c r="C9">
+        <v>472</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -501,6 +537,12 @@
       <c r="B10">
         <v>1.8</v>
       </c>
+      <c r="C10">
+        <v>553</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -509,6 +551,12 @@
       <c r="B11">
         <v>2</v>
       </c>
+      <c r="C11">
+        <v>600</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -560,7 +608,7 @@
         <v>0.8</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -574,7 +622,7 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -658,7 +706,7 @@
         <v>0.2</v>
       </c>
       <c r="C22">
-        <v>790</v>
+        <v>300</v>
       </c>
       <c r="D22">
         <v>8</v>
@@ -671,6 +719,12 @@
       <c r="B23">
         <v>0.4</v>
       </c>
+      <c r="C23">
+        <v>80</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -679,6 +733,12 @@
       <c r="B24">
         <v>0.6</v>
       </c>
+      <c r="C24">
+        <v>69</v>
+      </c>
+      <c r="D24">
+        <v>8</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -687,6 +747,12 @@
       <c r="B25">
         <v>0.8</v>
       </c>
+      <c r="C25">
+        <v>44</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -695,6 +761,12 @@
       <c r="B26">
         <v>1</v>
       </c>
+      <c r="C26">
+        <v>26</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -703,6 +775,12 @@
       <c r="B27">
         <v>1.2</v>
       </c>
+      <c r="C27">
+        <v>24</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -711,6 +789,12 @@
       <c r="B28">
         <v>1.4</v>
       </c>
+      <c r="C28">
+        <v>38</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -719,6 +803,12 @@
       <c r="B29">
         <v>1.6</v>
       </c>
+      <c r="C29">
+        <v>38</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -727,12 +817,24 @@
       <c r="B30">
         <v>1.8</v>
       </c>
+      <c r="C30">
+        <v>25</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
       <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>20</v>
+      </c>
+      <c r="D31">
         <v>2</v>
       </c>
     </row>
